--- a/Fourth Semester/static and probability/salim.xlsx
+++ b/Fourth Semester/static and probability/salim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER-WIN10\Documents\GitHub\BCE\Fourth Semester\static and probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE3307-AD2B-4C9B-AD2E-C86DC481ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CAA07-F4E3-448D-A5C7-6FDBE77179F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>20-30</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve"> =E29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SUMPRODUCT(B29:K29,B30:K30)/K31</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17B272C-DDEB-4EC9-9D4F-A3D0E422AD45}">
   <dimension ref="A18:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,9 +888,8 @@
         <f>SUMPRODUCT(B29:K29,B30:K30)/K31</f>
         <v>5.2195121951219514</v>
       </c>
-      <c r="E19" s="6">
-        <f>SUMPRODUCT(B29:K29,B30:K30)/K31</f>
-        <v>5.2195121951219514</v>
+      <c r="E19" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
